--- a/2019/Others/IMEI.xlsx
+++ b/2019/Others/IMEI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2019\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D5D87E-022A-41EB-8EC3-612D250F3BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93815584-5634-4CF0-9D4E-17EE5496FC92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7485" yWindow="1080" windowWidth="11205" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
-  <si>
-    <t>D40</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>B65</t>
   </si>
@@ -415,7 +412,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -430,7 +427,7 @@
         <v>357653103196023</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -438,7 +435,7 @@
         <v>357653103005687</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -446,7 +443,7 @@
         <v>357653103200007</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -454,7 +451,7 @@
         <v>357653102912248</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -462,14 +459,6 @@
         <v>357653104891481</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>359998100004623</v>
-      </c>
-      <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -478,10 +467,10 @@
         <v>355580101577908</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -489,12 +478,12 @@
         <v>356243107327526</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -502,7 +491,7 @@
         <v>358444100265204</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -510,10 +499,10 @@
         <v>357261101684444</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/2019/Others/IMEI.xlsx
+++ b/2019/Others/IMEI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2019\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93815584-5634-4CF0-9D4E-17EE5496FC92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56F530A-B40F-404B-B576-6866A2826CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="1080" windowWidth="11205" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
